--- a/dumps/Stocks/Life Insurance Corporation Of India.xlsx
+++ b/dumps/Stocks/Life Insurance Corporation Of India.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,20 +590,56 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
+        <v>891.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4482.05</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
         <v>890.01</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>4472.3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>CN#252611730667</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>22.25</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Life Insurance Corporation Of India.xlsx
+++ b/dumps/Stocks/Life Insurance Corporation Of India.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46062</v>
+        <v>46066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +590,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>891.95</v>
+        <v>866.95</v>
       </c>
       <c r="F5" t="n">
-        <v>4482.05</v>
+        <v>4365.27</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
+          <t>CN#252611910666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.3787</v>
       </c>
       <c r="I5" t="n">
-        <v>22.3</v>
+        <v>26.1397</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,7 +613,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,20 +629,56 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
+        <v>891.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4482.05</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
         <v>890.01</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>4472.3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>CN#252611730667</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>22.25</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Life Insurance Corporation Of India.xlsx
+++ b/dumps/Stocks/Life Insurance Corporation Of India.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,21 +590,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>866.95</v>
+        <v>868.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4365.27</v>
+        <v>4374.14</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.3787</v>
+        <v>4.3699</v>
       </c>
       <c r="I5" t="n">
-        <v>26.1397</v>
+        <v>26.2657</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -613,11 +613,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46062</v>
+        <v>46066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,18 +629,21 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>891.95</v>
+        <v>866.95</v>
       </c>
       <c r="F6" t="n">
-        <v>4482.05</v>
+        <v>4365.27</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
+          <t>CN#252611910666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.3787</v>
       </c>
       <c r="I6" t="n">
-        <v>22.3</v>
+        <v>26.1397</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -649,7 +652,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -665,20 +668,56 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
+        <v>891.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4482.05</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
         <v>890.01</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>4472.3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>CN#252611730667</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>22.25</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <f>Index!$C$2</f>
         <v/>
       </c>
